--- a/E2TGST/Resources/SalesEntries.xlsx
+++ b/E2TGST/Resources/SalesEntries.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dineshkumar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GST-Tally-Helper\E2TGST\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8A43E61B-357A-40CF-8EAD-9C6DEE2E5127}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1F2B2DE2-17F4-4D47-9DAE-E3FE1EB35E3C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{D8A0F778-E9CD-48E6-B356-08504E8D0EF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Entries" sheetId="1" r:id="rId1"/>
-    <sheet name="List" sheetId="2" r:id="rId2"/>
+    <sheet name="List" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>GSTIN</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>CESS</t>
+  </si>
+  <si>
+    <t>GST Rates</t>
   </si>
 </sst>
 </file>
@@ -91,13 +94,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -111,19 +190,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6641C363-777C-4291-A848-DD31838554BF}" name="Table1" displayName="Table1" ref="A1:J100" totalsRowShown="0">
-  <autoFilter ref="A1:J100" xr:uid="{ACCD32B7-FD0B-4A65-9D67-7610869FA679}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6641C363-777C-4291-A848-DD31838554BF}" name="Table1" displayName="Table1" ref="A1:J99" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J99" xr:uid="{ACCD32B7-FD0B-4A65-9D67-7610869FA679}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E0F9E751-B0BD-4FEB-974E-46F0957EA1EB}" name="GSTIN"/>
-    <tableColumn id="2" xr3:uid="{E6F56B07-F31F-4E6B-B0B8-B1642FDFA0E0}" name="Invoice Date"/>
-    <tableColumn id="3" xr3:uid="{F2D5E89F-EBC5-4F91-BC6A-503094717339}" name="Invoice Number"/>
-    <tableColumn id="4" xr3:uid="{1BEF6519-2DB3-480C-8C69-2823C29BA599}" name="Invoice Value"/>
-    <tableColumn id="5" xr3:uid="{B8DBA688-939B-4677-AA04-BB67BC7CF218}" name="Rate"/>
-    <tableColumn id="6" xr3:uid="{4B322682-32D3-4993-B481-066B72CFB345}" name="Taxable Value"/>
-    <tableColumn id="7" xr3:uid="{7F834F94-0BB3-45D3-A2CD-C296C3D64C6F}" name="IGST"/>
-    <tableColumn id="8" xr3:uid="{F3EB9593-863C-490B-A566-87D8B8597B20}" name="CGST"/>
-    <tableColumn id="9" xr3:uid="{5112CCD4-8D3E-4422-BE83-2FE2C8EF79DB}" name="SGST"/>
-    <tableColumn id="10" xr3:uid="{83A779B3-5913-4825-90A0-310F2A4E4099}" name="CESS"/>
+    <tableColumn id="1" xr3:uid="{E0F9E751-B0BD-4FEB-974E-46F0957EA1EB}" name="GSTIN" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E6F56B07-F31F-4E6B-B0B8-B1642FDFA0E0}" name="Invoice Date" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{F2D5E89F-EBC5-4F91-BC6A-503094717339}" name="Invoice Number" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{1BEF6519-2DB3-480C-8C69-2823C29BA599}" name="Invoice Value" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{B8DBA688-939B-4677-AA04-BB67BC7CF218}" name="Rate" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{4B322682-32D3-4993-B481-066B72CFB345}" name="Taxable Value" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{7F834F94-0BB3-45D3-A2CD-C296C3D64C6F}" name="IGST" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{F3EB9593-863C-490B-A566-87D8B8597B20}" name="CGST" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{5112CCD4-8D3E-4422-BE83-2FE2C8EF79DB}" name="SGST" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{83A779B3-5913-4825-90A0-310F2A4E4099}" name="CESS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -430,51 +509,57 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5xxus25WFf6/e63I4n6PWjXhMZyYGoyZ0lu3+X9aF2zzFw2piRnj9Jc+pir0b6AZHvO97RVUnVO00VCGEm/VCg==" saltValue="8LlutjVk7855AIOQ4RC6Ow==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -488,14 +573,18 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" hidden="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -524,6 +613,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZjFNhjkrTGxTI66brPh7D3s0xnm8LAmNfRgN4BQQQB5xbRMic7dlcUyX4OV9nnXfgsPGr/IOMrdQ4coC0EKTVw==" saltValue="8AU1pVFrLI0DJIFccK3Sug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/E2TGST/Resources/SalesEntries.xlsx
+++ b/E2TGST/Resources/SalesEntries.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GST-Tally-Helper\E2TGST\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Dineshkumar\Projects\Excel-to-Tally-for-GST\E2TGST\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1F2B2DE2-17F4-4D47-9DAE-E3FE1EB35E3C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{D8A0F778-E9CD-48E6-B356-08504E8D0EF9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Entries" sheetId="1" r:id="rId1"/>
     <sheet name="List" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>GSTIN</t>
   </si>
@@ -59,12 +58,15 @@
   </si>
   <si>
     <t>GST Rates</t>
+  </si>
+  <si>
+    <t>Place of Supply</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,7 +130,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <protection locked="0" hidden="0"/>
@@ -190,19 +196,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6641C363-777C-4291-A848-DD31838554BF}" name="Table1" displayName="Table1" ref="A1:J99" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J99" xr:uid="{ACCD32B7-FD0B-4A65-9D67-7610869FA679}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E0F9E751-B0BD-4FEB-974E-46F0957EA1EB}" name="GSTIN" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{E6F56B07-F31F-4E6B-B0B8-B1642FDFA0E0}" name="Invoice Date" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{F2D5E89F-EBC5-4F91-BC6A-503094717339}" name="Invoice Number" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{1BEF6519-2DB3-480C-8C69-2823C29BA599}" name="Invoice Value" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{B8DBA688-939B-4677-AA04-BB67BC7CF218}" name="Rate" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{4B322682-32D3-4993-B481-066B72CFB345}" name="Taxable Value" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{7F834F94-0BB3-45D3-A2CD-C296C3D64C6F}" name="IGST" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{F3EB9593-863C-490B-A566-87D8B8597B20}" name="CGST" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{5112CCD4-8D3E-4422-BE83-2FE2C8EF79DB}" name="SGST" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{83A779B3-5913-4825-90A0-310F2A4E4099}" name="CESS" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K99" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K99"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="GSTIN" dataDxfId="10"/>
+    <tableColumn id="2" name="Invoice Date" dataDxfId="9"/>
+    <tableColumn id="3" name="Invoice Number" dataDxfId="8"/>
+    <tableColumn id="4" name="Invoice Value" dataDxfId="7"/>
+    <tableColumn id="5" name="Rate" dataDxfId="6"/>
+    <tableColumn id="6" name="Taxable Value" dataDxfId="5"/>
+    <tableColumn id="7" name="IGST" dataDxfId="4"/>
+    <tableColumn id="8" name="CGST" dataDxfId="3"/>
+    <tableColumn id="9" name="SGST" dataDxfId="2"/>
+    <tableColumn id="10" name="CESS" dataDxfId="1"/>
+    <tableColumn id="11" name="Place of Supply" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -504,9 +511,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AC1771-6EC9-4AFC-9ACE-4FF5B99E830E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="SalesEntries"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -523,10 +530,11 @@
     <col min="7" max="8" width="9.140625" style="5" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="11" max="11" width="19" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -557,9 +565,306 @@
       <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="5"/>
+    </row>
+    <row r="74" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="5"/>
+    </row>
+    <row r="77" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="5"/>
+    </row>
+    <row r="78" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K79" s="5"/>
+    </row>
+    <row r="80" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K80" s="5"/>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K82" s="5"/>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="5"/>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K86" s="5"/>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K87" s="5"/>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K88" s="5"/>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K89" s="5"/>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K90" s="5"/>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="5"/>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K92" s="5"/>
+    </row>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K93" s="5"/>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="5"/>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K95" s="5"/>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="5"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K97" s="5"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K98" s="5"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K99" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5xxus25WFf6/e63I4n6PWjXhMZyYGoyZ0lu3+X9aF2zzFw2piRnj9Jc+pir0b6AZHvO97RVUnVO00VCGEm/VCg==" saltValue="8LlutjVk7855AIOQ4RC6Ow==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lY4eHfCfpukvqXiN7RJe8UjapnzHXlsn2n1IMi+K4njC4lD/4mW52qfbsRsLCDTBVk1DleyP2cgX7EonjoM2tw==" saltValue="YJsY50iHAFUMd1tQfHFQ6g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -568,7 +873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D42C5B-6F11-4C32-90AA-46403DD79AE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="List"/>
   <dimension ref="A1:A6"/>
   <sheetViews>

--- a/E2TGST/Resources/SalesEntries.xlsx
+++ b/E2TGST/Resources/SalesEntries.xlsx
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>GSTIN</t>
-  </si>
-  <si>
     <t>Invoice Date</t>
   </si>
   <si>
@@ -61,13 +58,16 @@
   </si>
   <si>
     <t>Place of Supply</t>
+  </si>
+  <si>
+    <t>GSTIN/Party Ledger Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,16 +75,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -92,11 +106,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -114,75 +196,71 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -193,26 +271,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K99" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K99"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="GSTIN" dataDxfId="10"/>
-    <tableColumn id="2" name="Invoice Date" dataDxfId="9"/>
-    <tableColumn id="3" name="Invoice Number" dataDxfId="8"/>
-    <tableColumn id="4" name="Invoice Value" dataDxfId="7"/>
-    <tableColumn id="5" name="Rate" dataDxfId="6"/>
-    <tableColumn id="6" name="Taxable Value" dataDxfId="5"/>
-    <tableColumn id="7" name="IGST" dataDxfId="4"/>
-    <tableColumn id="8" name="CGST" dataDxfId="3"/>
-    <tableColumn id="9" name="SGST" dataDxfId="2"/>
-    <tableColumn id="10" name="CESS" dataDxfId="1"/>
-    <tableColumn id="11" name="Place of Supply" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,15 +571,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="SalesEntries"/>
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
@@ -535,340 +593,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K9" s="5"/>
+      <c r="K1" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="5"/>
-    </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="5"/>
-    </row>
-    <row r="46" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K46" s="5"/>
-    </row>
-    <row r="47" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K47" s="5"/>
-    </row>
-    <row r="48" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K48" s="5"/>
-    </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K49" s="5"/>
-    </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K50" s="5"/>
-    </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K51" s="5"/>
-    </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K52" s="5"/>
-    </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K54" s="5"/>
-    </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K55" s="5"/>
-    </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K56" s="5"/>
-    </row>
-    <row r="57" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K57" s="5"/>
-    </row>
-    <row r="58" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K58" s="5"/>
-    </row>
-    <row r="59" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K59" s="5"/>
-    </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K60" s="5"/>
-    </row>
-    <row r="61" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K61" s="5"/>
-    </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K62" s="5"/>
-    </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K63" s="5"/>
-    </row>
-    <row r="64" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K64" s="5"/>
-    </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K65" s="5"/>
-    </row>
-    <row r="66" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K66" s="5"/>
-    </row>
-    <row r="67" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K67" s="5"/>
-    </row>
-    <row r="68" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K68" s="5"/>
-    </row>
-    <row r="69" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K69" s="5"/>
-    </row>
-    <row r="70" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K70" s="5"/>
-    </row>
-    <row r="71" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K71" s="5"/>
-    </row>
-    <row r="72" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K72" s="5"/>
-    </row>
-    <row r="73" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K73" s="5"/>
-    </row>
-    <row r="74" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K74" s="5"/>
-    </row>
-    <row r="75" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K75" s="5"/>
-    </row>
-    <row r="76" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K76" s="5"/>
-    </row>
-    <row r="77" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K77" s="5"/>
-    </row>
-    <row r="78" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K78" s="5"/>
-    </row>
-    <row r="79" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K79" s="5"/>
-    </row>
-    <row r="80" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K80" s="5"/>
-    </row>
-    <row r="81" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K81" s="5"/>
-    </row>
-    <row r="82" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K82" s="5"/>
-    </row>
-    <row r="83" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K83" s="5"/>
-    </row>
-    <row r="84" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K84" s="5"/>
-    </row>
-    <row r="85" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K85" s="5"/>
-    </row>
-    <row r="86" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K86" s="5"/>
-    </row>
-    <row r="87" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K87" s="5"/>
-    </row>
-    <row r="88" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K88" s="5"/>
-    </row>
-    <row r="89" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K89" s="5"/>
-    </row>
-    <row r="90" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K90" s="5"/>
-    </row>
-    <row r="91" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K91" s="5"/>
-    </row>
-    <row r="92" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K92" s="5"/>
-    </row>
-    <row r="93" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K93" s="5"/>
-    </row>
-    <row r="94" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K94" s="5"/>
-    </row>
-    <row r="95" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K95" s="5"/>
-    </row>
-    <row r="96" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K96" s="5"/>
-    </row>
-    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K97" s="5"/>
-    </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K98" s="5"/>
-    </row>
-    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K99" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lY4eHfCfpukvqXiN7RJe8UjapnzHXlsn2n1IMi+K4njC4lD/4mW52qfbsRsLCDTBVk1DleyP2cgX7EonjoM2tw==" saltValue="YJsY50iHAFUMd1tQfHFQ6g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8e8bYjnjHV2zIQyJZsjcHSZ9pNOdmvIMRVRCkWzQ8p1rwl0xvv0fKMSkqPOCzM+6PtQrXngFKSaZlACII2WWgg==" saltValue="seXeOZ/QqhlvKWjzGF9nwA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -889,7 +767,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
